--- a/results/MVSE/imdb/MVSE_imdb<l05>AllRes_63.41.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l05>AllRes_63.41.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -854,33 +854,33 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.53</v>
+        <v>0.29</v>
       </c>
       <c r="O6" t="n">
-        <v>63.05</v>
+        <v>63.07</v>
       </c>
       <c r="P6" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.43</v>
+        <v>1.34</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_46_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_53_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -892,11 +892,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -911,7 +907,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -933,27 +929,27 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="O7" t="n">
         <v>63.05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_46_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -965,7 +961,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -980,7 +980,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -996,33 +996,33 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="O8" t="n">
-        <v>63.03</v>
+        <v>63.05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_48_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1034,11 +1034,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1046,14 +1042,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1068,34 +1064,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.79</v>
+        <v>0.38</v>
       </c>
       <c r="O9" t="n">
-        <v>62.52</v>
+        <v>63.03</v>
       </c>
       <c r="P9" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.79</v>
+        <v>0.49</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_04_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_48_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1107,7 +1103,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1122,7 +1122,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1142,29 +1142,29 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.41</v>
+        <v>0.79</v>
       </c>
       <c r="O10" t="n">
-        <v>62.31</v>
+        <v>62.52</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.11</v>
+        <v>0.79</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_46_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_04_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1211,29 +1211,29 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.86</v>
+        <v>0.41</v>
       </c>
       <c r="O11" t="n">
-        <v>62.02</v>
+        <v>62.31</v>
       </c>
       <c r="P11" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.43</v>
+        <v>1.11</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_15_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_46_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1280,20 +1280,20 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="O12" t="n">
-        <v>62.01</v>
+        <v>62.02</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_43_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_15_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1302,7 +1302,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1322,14 +1322,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1344,34 +1344,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.37</v>
+        <v>0.72</v>
       </c>
       <c r="O13" t="n">
-        <v>61.95</v>
+        <v>62.01</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.91</v>
+        <v>0.54</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_19_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_43_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1383,11 +1383,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1395,14 +1391,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1417,34 +1413,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>61.6</v>
+        <v>61.95</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_12_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_19_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,7 +1464,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1490,34 +1486,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.21</v>
+        <v>0.7</v>
       </c>
       <c r="O15" t="n">
-        <v>61.46</v>
+        <v>61.6</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_33_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_12_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1541,7 +1537,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1563,34 +1559,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.67</v>
+        <v>0.21</v>
       </c>
       <c r="O16" t="n">
-        <v>61.38</v>
+        <v>61.46</v>
       </c>
       <c r="P16" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Q16" t="n">
         <v>0.85</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_53_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_33_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1614,14 +1610,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1636,34 +1632,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="O17" t="n">
-        <v>61.19</v>
+        <v>61.38</v>
       </c>
       <c r="P17" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.19</v>
+        <v>0.85</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_53_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_53_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1687,7 +1683,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1709,34 +1705,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="O18" t="n">
-        <v>60.29</v>
+        <v>61.19</v>
       </c>
       <c r="P18" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.88</v>
+        <v>0.19</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_37_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_53_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1787,29 +1783,29 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="O19" t="n">
-        <v>59.78</v>
+        <v>60.29</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_22_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_37_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1833,7 +1829,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1855,34 +1851,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2</v>
+        <v>0.63</v>
       </c>
       <c r="O20" t="n">
-        <v>59.46</v>
+        <v>59.78</v>
       </c>
       <c r="P20" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_14_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_22_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1913,7 +1909,7 @@
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1935,27 +1931,27 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="O21" t="n">
-        <v>59.41</v>
+        <v>59.46</v>
       </c>
       <c r="P21" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.27</v>
+        <v>0.82</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_54_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_14_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2002,33 +1998,33 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="O22" t="n">
-        <v>58.92</v>
+        <v>59.41</v>
       </c>
       <c r="P22" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.72</v>
+        <v>1.27</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_45_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_54_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2052,7 +2048,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2074,34 +2070,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
       <c r="O23" t="n">
-        <v>58.89</v>
+        <v>58.92</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.09</v>
+        <v>0.72</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_29_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_45_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2152,23 +2148,96 @@
         <v>2</v>
       </c>
       <c r="N24" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O24" t="n">
+        <v>58.89</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_29_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
         <v>0.92</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O25" t="n">
         <v>58.18</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>0.06</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>0.15</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_48_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S24" t="n">
+      <c r="S25" t="n">
         <v>4096</v>
       </c>
     </row>
